--- a/Data/sae_extraction_20200131.xlsx
+++ b/Data/sae_extraction_20200131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvdmc\OneDrive - University of Glasgow\Documents\adverse_events_older_people\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{10912F58-3D18-4B01-919C-DC4A349BCDFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{316626F9-3BD2-4D84-9FD2-015A41BF531F}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{10912F58-3D18-4B01-919C-DC4A349BCDFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B212F1FB-FEF4-4F1E-8482-28F56BF82A3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{3137E817-FA1E-4743-A1DF-4AF79B93904D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7864" uniqueCount="1314">
   <si>
     <t>Sheets and columns</t>
   </si>
@@ -3968,6 +3968,15 @@
   </si>
   <si>
     <t>517:472</t>
+  </si>
+  <si>
+    <t>7 weeks</t>
+  </si>
+  <si>
+    <t>Study states that it is a 6-8 week follow-up. Assume this is the case for SAEs</t>
+  </si>
+  <si>
+    <t>DM took from paper 26996246</t>
   </si>
 </sst>
 </file>
@@ -21048,8 +21057,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -21094,339 +21103,393 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1032</v>
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>1029</v>
+        <v>1311</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1031</v>
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>1029</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>652</v>
       </c>
       <c r="C4" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D4" t="s">
         <v>582</v>
       </c>
       <c r="E4" t="s">
-        <v>1005</v>
+        <v>1064</v>
+      </c>
+      <c r="F4" t="s">
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>1029</v>
+        <v>1060</v>
       </c>
       <c r="J4" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>651</v>
       </c>
       <c r="B5" t="s">
-        <v>488</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D5" t="s">
         <v>582</v>
       </c>
       <c r="E5" t="s">
-        <v>1027</v>
+        <v>1062</v>
+      </c>
+      <c r="F5" t="s">
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>1002</v>
+        <v>1060</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1025</v>
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>1026</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D7" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>22.9</v>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>1024</v>
+        <v>933</v>
       </c>
       <c r="D8" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>23.2</v>
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>922</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>1024</v>
+        <v>933</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1266</v>
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>922</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>1259</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>1024</v>
+        <v>928</v>
       </c>
       <c r="D10" t="s">
-        <v>582</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1267</v>
+        <v>935</v>
+      </c>
+      <c r="E10">
+        <v>25.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>936</v>
       </c>
       <c r="G10" t="s">
-        <v>931</v>
+        <v>937</v>
+      </c>
+      <c r="I10" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>754</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>1033</v>
+        <v>928</v>
       </c>
       <c r="D11" t="s">
-        <v>582</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1081</v>
+        <v>935</v>
+      </c>
+      <c r="E11">
+        <v>23.1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>936</v>
       </c>
       <c r="G11" t="s">
-        <v>1080</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>1033</v>
+        <v>933</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
-      </c>
-      <c r="E12" t="s">
-        <v>955</v>
+        <v>935</v>
+      </c>
+      <c r="E12">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F12" t="s">
+        <v>936</v>
       </c>
       <c r="G12" t="s">
-        <v>1080</v>
+        <v>937</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>505</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>1033</v>
+        <v>933</v>
       </c>
       <c r="D13" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>71.3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>936</v>
       </c>
       <c r="G13" t="s">
-        <v>1029</v>
+        <v>937</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>1033</v>
+        <v>928</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>1033</v>
+        <v>928</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>322</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>1033</v>
+        <v>928</v>
       </c>
       <c r="D16" t="s">
-        <v>582</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1034</v>
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" t="s">
-        <v>941</v>
+        <v>322</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="C17" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="D17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E17" t="s">
-        <v>944</v>
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
       </c>
       <c r="G17" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>998</v>
+        <v>928</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
@@ -21438,129 +21501,144 @@
         <v>930</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D20" t="s">
         <v>52</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>489</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>797</v>
+        <v>928</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>999</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>999</v>
+        <v>928</v>
       </c>
       <c r="D24" t="s">
-        <v>802</v>
-      </c>
-      <c r="E24" t="s">
-        <v>802</v>
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>802</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>928</v>
@@ -21569,38 +21647,44 @@
         <v>52</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>932</v>
+      </c>
+      <c r="I25" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>941</v>
       </c>
       <c r="C26" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+      <c r="E26" t="s">
+        <v>944</v>
+      </c>
+      <c r="G26" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>651</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>652</v>
+        <v>945</v>
       </c>
       <c r="C27" t="s">
         <v>928</v>
@@ -21609,24 +21693,18 @@
         <v>582</v>
       </c>
       <c r="E27" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F27" t="s">
-        <v>221</v>
+        <v>946</v>
       </c>
       <c r="G27" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>651</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>947</v>
       </c>
       <c r="C28" t="s">
         <v>928</v>
@@ -21635,383 +21713,347 @@
         <v>582</v>
       </c>
       <c r="E28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F28" t="s">
-        <v>221</v>
+        <v>948</v>
       </c>
       <c r="G28" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>949</v>
       </c>
       <c r="C29" t="s">
         <v>928</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E29" t="s">
+        <v>950</v>
       </c>
       <c r="G29" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>941</v>
       </c>
       <c r="C30" t="s">
         <v>928</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E30" t="s">
+        <v>942</v>
       </c>
       <c r="G30" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>928</v>
       </c>
       <c r="D31" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="E31">
-        <v>25.4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>936</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>937</v>
-      </c>
-      <c r="I31" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
         <v>928</v>
       </c>
       <c r="D32" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>23.1</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>936</v>
+        <v>53</v>
       </c>
       <c r="G32" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+      <c r="I32" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>859</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>953</v>
       </c>
       <c r="C33" t="s">
         <v>928</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E33" t="s">
+        <v>951</v>
       </c>
       <c r="G33" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>859</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
         <v>928</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E34" t="s">
+        <v>951</v>
       </c>
       <c r="G34" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>322</v>
+        <v>859</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>954</v>
       </c>
       <c r="C35" t="s">
         <v>928</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="E35" t="s">
+        <v>955</v>
       </c>
       <c r="G35" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>323</v>
+        <v>754</v>
+      </c>
+      <c r="B36" t="s">
+        <v>756</v>
       </c>
       <c r="C36" t="s">
-        <v>928</v>
+        <v>1033</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36">
-        <v>8</v>
+        <v>582</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1081</v>
       </c>
       <c r="G36" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>754</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>928</v>
+        <v>1033</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
+        <v>582</v>
+      </c>
+      <c r="E37" t="s">
+        <v>955</v>
       </c>
       <c r="G37" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
         <v>928</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1007</v>
       </c>
       <c r="G38" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="C39" t="s">
         <v>928</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1006</v>
       </c>
       <c r="G39" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>928</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1006</v>
       </c>
       <c r="G40" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="C41" t="s">
         <v>928</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41">
-        <v>25</v>
-      </c>
-      <c r="F41" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1006</v>
       </c>
       <c r="G41" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>406</v>
       </c>
       <c r="C42" t="s">
         <v>928</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1008</v>
       </c>
       <c r="G42" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="C43" t="s">
         <v>928</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1004</v>
       </c>
       <c r="G43" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
         <v>928</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1005</v>
       </c>
       <c r="G44" t="s">
-        <v>932</v>
-      </c>
-      <c r="I44" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s">
-        <v>945</v>
+        <v>394</v>
       </c>
       <c r="C45" t="s">
         <v>928</v>
@@ -22020,18 +22062,18 @@
         <v>582</v>
       </c>
       <c r="E45" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="G45" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>947</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>928</v>
@@ -22040,18 +22082,18 @@
         <v>582</v>
       </c>
       <c r="E46" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="G46" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s">
-        <v>949</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>928</v>
@@ -22060,18 +22102,21 @@
         <v>582</v>
       </c>
       <c r="E47" t="s">
-        <v>950</v>
+        <v>1009</v>
       </c>
       <c r="G47" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1010</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>941</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>928</v>
@@ -22080,67 +22125,58 @@
         <v>582</v>
       </c>
       <c r="E48" t="s">
-        <v>942</v>
+        <v>1012</v>
       </c>
       <c r="G48" t="s">
-        <v>930</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>404</v>
       </c>
       <c r="C49" t="s">
         <v>928</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1013</v>
       </c>
       <c r="G49" t="s">
-        <v>932</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
         <v>928</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1014</v>
       </c>
       <c r="G50" t="s">
-        <v>932</v>
-      </c>
-      <c r="I50" t="s">
-        <v>940</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>859</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s">
-        <v>953</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>928</v>
@@ -22149,18 +22185,18 @@
         <v>582</v>
       </c>
       <c r="E51" t="s">
-        <v>951</v>
+        <v>1306</v>
       </c>
       <c r="G51" t="s">
-        <v>952</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>859</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="C52" t="s">
         <v>928</v>
@@ -22169,18 +22205,18 @@
         <v>582</v>
       </c>
       <c r="E52" t="s">
-        <v>951</v>
+        <v>1018</v>
       </c>
       <c r="G52" t="s">
-        <v>952</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>859</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
-        <v>954</v>
+        <v>462</v>
       </c>
       <c r="C53" t="s">
         <v>928</v>
@@ -22189,18 +22225,18 @@
         <v>582</v>
       </c>
       <c r="E53" t="s">
-        <v>955</v>
+        <v>1020</v>
       </c>
       <c r="G53" t="s">
-        <v>952</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>1021</v>
       </c>
       <c r="C54" t="s">
         <v>928</v>
@@ -22209,18 +22245,18 @@
         <v>582</v>
       </c>
       <c r="E54" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="G54" t="s">
-        <v>930</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="B55" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="C55" t="s">
         <v>928</v>
@@ -22229,18 +22265,18 @@
         <v>582</v>
       </c>
       <c r="E55" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="G55" t="s">
-        <v>930</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="C56" t="s">
         <v>928</v>
@@ -22249,18 +22285,21 @@
         <v>582</v>
       </c>
       <c r="E56" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="G56" t="s">
-        <v>930</v>
+        <v>1016</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="C57" t="s">
         <v>928</v>
@@ -22269,61 +22308,61 @@
         <v>582</v>
       </c>
       <c r="E57" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="G57" t="s">
-        <v>930</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>406</v>
+        <v>507</v>
       </c>
       <c r="C58" t="s">
-        <v>928</v>
+        <v>1024</v>
       </c>
       <c r="D58" t="s">
         <v>582</v>
       </c>
       <c r="E58" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="G58" t="s">
-        <v>930</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="B59" t="s">
-        <v>396</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>928</v>
+        <v>1024</v>
       </c>
       <c r="D59" t="s">
         <v>582</v>
       </c>
       <c r="E59" t="s">
-        <v>1004</v>
+        <v>1031</v>
       </c>
       <c r="G59" t="s">
-        <v>930</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s">
-        <v>398</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>928</v>
+        <v>1024</v>
       </c>
       <c r="D60" t="s">
         <v>582</v>
@@ -22332,44 +22371,47 @@
         <v>1005</v>
       </c>
       <c r="G60" t="s">
-        <v>930</v>
+        <v>1029</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s">
-        <v>394</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>928</v>
+        <v>1033</v>
       </c>
       <c r="D61" t="s">
-        <v>582</v>
-      </c>
-      <c r="E61" t="s">
-        <v>951</v>
+        <v>957</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>930</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>392</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="C62" t="s">
-        <v>928</v>
+        <v>1033</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
-      </c>
-      <c r="E62" t="s">
-        <v>951</v>
+        <v>52</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>930</v>
@@ -22377,53 +22419,50 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>522</v>
       </c>
       <c r="C63" t="s">
-        <v>928</v>
+        <v>1033</v>
       </c>
       <c r="D63" t="s">
-        <v>582</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1009</v>
+        <v>52</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1011</v>
+        <v>930</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="C64" t="s">
-        <v>928</v>
+        <v>1033</v>
       </c>
       <c r="D64" t="s">
         <v>582</v>
       </c>
       <c r="E64" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="G64" t="s">
-        <v>1010</v>
+        <v>930</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="C65" t="s">
         <v>928</v>
@@ -22432,18 +22471,18 @@
         <v>582</v>
       </c>
       <c r="E65" t="s">
-        <v>1013</v>
+        <v>1036</v>
       </c>
       <c r="G65" t="s">
-        <v>1010</v>
+        <v>930</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>522</v>
       </c>
       <c r="C66" t="s">
         <v>928</v>
@@ -22452,18 +22491,18 @@
         <v>582</v>
       </c>
       <c r="E66" t="s">
-        <v>1014</v>
+        <v>1037</v>
       </c>
       <c r="G66" t="s">
-        <v>1010</v>
+        <v>930</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>518</v>
       </c>
       <c r="C67" t="s">
         <v>928</v>
@@ -22472,18 +22511,18 @@
         <v>582</v>
       </c>
       <c r="E67" t="s">
-        <v>1306</v>
+        <v>1035</v>
       </c>
       <c r="G67" t="s">
-        <v>1010</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="B68" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="C68" t="s">
         <v>928</v>
@@ -22492,18 +22531,18 @@
         <v>582</v>
       </c>
       <c r="E68" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="G68" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="B69" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="C69" t="s">
         <v>928</v>
@@ -22512,18 +22551,18 @@
         <v>582</v>
       </c>
       <c r="E69" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="G69" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s">
-        <v>1021</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
         <v>928</v>
@@ -22532,18 +22571,18 @@
         <v>582</v>
       </c>
       <c r="E70" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="G70" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B71" t="s">
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="C71" t="s">
         <v>928</v>
@@ -22552,18 +22591,18 @@
         <v>582</v>
       </c>
       <c r="E71" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="G71" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>454</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
         <v>928</v>
@@ -22572,21 +22611,18 @@
         <v>582</v>
       </c>
       <c r="E72" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="G72" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1017</v>
+        <v>932</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s">
-        <v>458</v>
+        <v>547</v>
       </c>
       <c r="C73" t="s">
         <v>928</v>
@@ -22595,18 +22631,18 @@
         <v>582</v>
       </c>
       <c r="E73" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="G73" t="s">
-        <v>1016</v>
+        <v>932</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s">
-        <v>520</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
         <v>928</v>
@@ -22615,18 +22651,18 @@
         <v>582</v>
       </c>
       <c r="E74" t="s">
-        <v>1036</v>
+        <v>1008</v>
       </c>
       <c r="G74" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="B75" t="s">
-        <v>522</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>928</v>
@@ -22635,18 +22671,18 @@
         <v>582</v>
       </c>
       <c r="E75" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="G75" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="B76" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="C76" t="s">
         <v>928</v>
@@ -22655,18 +22691,18 @@
         <v>582</v>
       </c>
       <c r="E76" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
       <c r="G76" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="B77" t="s">
-        <v>536</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
         <v>928</v>
@@ -22675,18 +22711,18 @@
         <v>582</v>
       </c>
       <c r="E77" t="s">
-        <v>1007</v>
+        <v>1043</v>
       </c>
       <c r="G77" t="s">
-        <v>932</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="B78" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="C78" t="s">
         <v>928</v>
@@ -22695,18 +22731,18 @@
         <v>582</v>
       </c>
       <c r="E78" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="G78" t="s">
-        <v>932</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>576</v>
       </c>
       <c r="C79" t="s">
         <v>928</v>
@@ -22715,98 +22751,101 @@
         <v>582</v>
       </c>
       <c r="E79" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="G79" t="s">
-        <v>932</v>
+        <v>1046</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>546</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D80" t="s">
-        <v>582</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1040</v>
+        <v>52</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D81" t="s">
-        <v>582</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1039</v>
+        <v>52</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>547</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D82" t="s">
-        <v>582</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1041</v>
+        <v>52</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>559</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D83" t="s">
-        <v>582</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1008</v>
+        <v>52</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>1002</v>
+        <v>930</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>520</v>
       </c>
       <c r="C84" t="s">
         <v>928</v>
@@ -22815,18 +22854,18 @@
         <v>582</v>
       </c>
       <c r="E84" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="G84" t="s">
-        <v>1002</v>
+        <v>930</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B85" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="C85" t="s">
         <v>928</v>
@@ -22835,15 +22874,15 @@
         <v>582</v>
       </c>
       <c r="E85" t="s">
-        <v>1008</v>
+        <v>1256</v>
       </c>
       <c r="G85" t="s">
-        <v>1002</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="B86" t="s">
         <v>50</v>
@@ -22855,18 +22894,18 @@
         <v>582</v>
       </c>
       <c r="E86" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="G86" t="s">
-        <v>1002</v>
+        <v>930</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B87" t="s">
-        <v>520</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
         <v>928</v>
@@ -22875,18 +22914,18 @@
         <v>582</v>
       </c>
       <c r="E87" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="G87" t="s">
-        <v>1046</v>
+        <v>930</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="B88" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C88" t="s">
         <v>928</v>
@@ -22895,21 +22934,18 @@
         <v>582</v>
       </c>
       <c r="E88" t="s">
-        <v>1045</v>
+        <v>1008</v>
       </c>
       <c r="G88" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1047</v>
+        <v>932</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="C89" t="s">
         <v>928</v>
@@ -22918,18 +22954,18 @@
         <v>582</v>
       </c>
       <c r="E89" t="s">
-        <v>1051</v>
+        <v>951</v>
       </c>
       <c r="G89" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B90" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C90" t="s">
         <v>928</v>
@@ -22938,18 +22974,21 @@
         <v>582</v>
       </c>
       <c r="E90" t="s">
-        <v>1256</v>
+        <v>955</v>
       </c>
       <c r="G90" t="s">
-        <v>930</v>
+        <v>932</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>599</v>
       </c>
       <c r="C91" t="s">
         <v>928</v>
@@ -22958,18 +22997,18 @@
         <v>582</v>
       </c>
       <c r="E91" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="G91" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>587</v>
+        <v>683</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>684</v>
       </c>
       <c r="C92" t="s">
         <v>928</v>
@@ -22978,18 +23017,18 @@
         <v>582</v>
       </c>
       <c r="E92" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="G92" t="s">
-        <v>930</v>
+        <v>962</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>597</v>
+        <v>683</v>
       </c>
       <c r="B93" t="s">
-        <v>601</v>
+        <v>1071</v>
       </c>
       <c r="C93" t="s">
         <v>928</v>
@@ -22998,101 +23037,107 @@
         <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>1008</v>
+        <v>1072</v>
       </c>
       <c r="G93" t="s">
-        <v>932</v>
+        <v>962</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="B94" t="s">
-        <v>602</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
         <v>928</v>
       </c>
       <c r="D94" t="s">
-        <v>582</v>
-      </c>
-      <c r="E94" t="s">
-        <v>951</v>
+        <v>935</v>
+      </c>
+      <c r="E94">
+        <v>0.8</v>
       </c>
       <c r="G94" t="s">
-        <v>932</v>
+        <v>996</v>
+      </c>
+      <c r="J94" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="B95" t="s">
-        <v>576</v>
+        <v>341</v>
       </c>
       <c r="C95" t="s">
         <v>928</v>
       </c>
       <c r="D95" t="s">
-        <v>582</v>
-      </c>
-      <c r="E95" t="s">
-        <v>955</v>
+        <v>935</v>
+      </c>
+      <c r="E95">
+        <v>1.4</v>
       </c>
       <c r="G95" t="s">
-        <v>932</v>
+        <v>996</v>
       </c>
       <c r="J95" t="s">
-        <v>1052</v>
+        <v>997</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>597</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
-        <v>599</v>
+        <v>357</v>
       </c>
       <c r="C96" t="s">
-        <v>928</v>
+        <v>998</v>
       </c>
       <c r="D96" t="s">
-        <v>582</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1053</v>
+        <v>52</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>683</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
-        <v>684</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
         <v>928</v>
       </c>
       <c r="D97" t="s">
-        <v>582</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1034</v>
+        <v>52</v>
+      </c>
+      <c r="E97">
+        <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>962</v>
+        <v>930</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>683</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>1071</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
         <v>928</v>
@@ -23101,79 +23146,70 @@
         <v>582</v>
       </c>
       <c r="E98" t="s">
-        <v>1072</v>
+        <v>1258</v>
       </c>
       <c r="G98" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>338</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="C99" t="s">
         <v>928</v>
       </c>
       <c r="D99" t="s">
-        <v>935</v>
-      </c>
-      <c r="E99">
-        <v>0.8</v>
+        <v>582</v>
+      </c>
+      <c r="E99" t="s">
+        <v>955</v>
       </c>
       <c r="G99" t="s">
         <v>996</v>
       </c>
-      <c r="J99" t="s">
-        <v>997</v>
-      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
         <v>928</v>
       </c>
       <c r="D100" t="s">
-        <v>935</v>
-      </c>
-      <c r="E100">
-        <v>1.4</v>
+        <v>582</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1044</v>
       </c>
       <c r="G100" t="s">
         <v>996</v>
       </c>
-      <c r="J100" t="s">
-        <v>997</v>
-      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
         <v>928</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
-      </c>
-      <c r="E101">
-        <v>21</v>
+        <v>582</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1008</v>
       </c>
       <c r="G101" t="s">
-        <v>930</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1232</v>
+        <v>996</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
@@ -23364,19 +23400,22 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="C111" t="s">
-        <v>928</v>
+        <v>959</v>
       </c>
       <c r="D111" t="s">
-        <v>582</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1000</v>
+        <v>52</v>
+      </c>
+      <c r="E111">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>53</v>
       </c>
       <c r="G111" t="s">
         <v>930</v>
@@ -23384,22 +23423,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C112" t="s">
-        <v>928</v>
+        <v>959</v>
       </c>
       <c r="D112" t="s">
         <v>52</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="G112" t="s">
         <v>930</v>
@@ -23407,22 +23446,22 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>960</v>
       </c>
       <c r="C113" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="D113" t="s">
         <v>52</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="G113" t="s">
         <v>930</v>
@@ -23430,22 +23469,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="D114" t="s">
         <v>52</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="F114" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="G114" t="s">
         <v>930</v>
@@ -23453,22 +23492,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>999</v>
       </c>
       <c r="C115" t="s">
-        <v>928</v>
+        <v>999</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
+        <v>802</v>
+      </c>
+      <c r="E115" t="s">
+        <v>802</v>
       </c>
       <c r="F115" t="s">
-        <v>995</v>
+        <v>802</v>
       </c>
       <c r="G115" t="s">
         <v>930</v>
@@ -23476,22 +23515,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
         <v>928</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
-      </c>
-      <c r="E116">
-        <v>3</v>
-      </c>
-      <c r="F116" t="s">
-        <v>994</v>
+        <v>582</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1000</v>
       </c>
       <c r="G116" t="s">
         <v>930</v>
@@ -23499,134 +23535,128 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>280</v>
+        <v>886</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>1282</v>
       </c>
       <c r="C117" t="s">
         <v>928</v>
       </c>
       <c r="D117" t="s">
-        <v>52</v>
-      </c>
-      <c r="E117">
-        <v>3</v>
+        <v>582</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1296</v>
       </c>
       <c r="F117" t="s">
-        <v>993</v>
+        <v>1297</v>
       </c>
       <c r="G117" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>886</v>
       </c>
       <c r="B118" t="s">
-        <v>281</v>
+        <v>1284</v>
       </c>
       <c r="C118" t="s">
         <v>928</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E118">
-        <v>3</v>
+        <v>582</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1298</v>
       </c>
       <c r="F118" t="s">
-        <v>992</v>
+        <v>1299</v>
       </c>
       <c r="G118" t="s">
-        <v>932</v>
-      </c>
-      <c r="I118" t="s">
-        <v>988</v>
+        <v>929</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>259</v>
+        <v>890</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
         <v>928</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1291</v>
       </c>
       <c r="F119" t="s">
-        <v>986</v>
+        <v>1292</v>
       </c>
       <c r="G119" t="s">
-        <v>987</v>
-      </c>
-      <c r="I119" t="s">
-        <v>988</v>
+        <v>1293</v>
       </c>
       <c r="J119" t="s">
-        <v>989</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>890</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>1269</v>
       </c>
       <c r="C120" t="s">
         <v>928</v>
       </c>
       <c r="D120" t="s">
-        <v>52</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1295</v>
       </c>
       <c r="F120" t="s">
-        <v>990</v>
+        <v>1292</v>
       </c>
       <c r="G120" t="s">
-        <v>987</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>890</v>
       </c>
       <c r="B121" t="s">
-        <v>263</v>
+        <v>1271</v>
       </c>
       <c r="C121" t="s">
         <v>928</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
+        <v>582</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1291</v>
       </c>
       <c r="F121" t="s">
-        <v>991</v>
+        <v>1292</v>
       </c>
       <c r="G121" t="s">
-        <v>987</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C122" t="s">
         <v>928</v>
@@ -23635,10 +23665,10 @@
         <v>52</v>
       </c>
       <c r="E122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>985</v>
+        <v>221</v>
       </c>
       <c r="G122" t="s">
         <v>930</v>
@@ -23646,10 +23676,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s">
         <v>928</v>
@@ -23658,10 +23688,10 @@
         <v>52</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>984</v>
+        <v>221</v>
       </c>
       <c r="G123" t="s">
         <v>930</v>
@@ -23669,10 +23699,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
         <v>928</v>
@@ -23681,24 +23711,21 @@
         <v>52</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>983</v>
+        <v>221</v>
       </c>
       <c r="G124" t="s">
         <v>930</v>
       </c>
-      <c r="I124" t="s">
-        <v>980</v>
-      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
         <v>928</v>
@@ -23707,10 +23734,10 @@
         <v>52</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="G125" t="s">
         <v>930</v>
@@ -23718,10 +23745,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
         <v>928</v>
@@ -23730,24 +23757,21 @@
         <v>52</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="G126" t="s">
         <v>930</v>
       </c>
-      <c r="I126" t="s">
-        <v>980</v>
-      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
         <v>928</v>
@@ -23756,21 +23780,21 @@
         <v>52</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="G127" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="B128" t="s">
-        <v>969</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
         <v>928</v>
@@ -23779,24 +23803,24 @@
         <v>52</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="G128" t="s">
-        <v>971</v>
+        <v>932</v>
       </c>
       <c r="I128" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>975</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
         <v>928</v>
@@ -23805,21 +23829,27 @@
         <v>52</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="G129" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+      <c r="I129" t="s">
+        <v>988</v>
+      </c>
+      <c r="J129" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>973</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
         <v>928</v>
@@ -23828,21 +23858,21 @@
         <v>52</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="G130" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>977</v>
+        <v>263</v>
       </c>
       <c r="C131" t="s">
         <v>928</v>
@@ -23851,21 +23881,21 @@
         <v>52</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
       <c r="G131" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="C132" t="s">
         <v>928</v>
@@ -23874,21 +23904,21 @@
         <v>52</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>53</v>
+        <v>985</v>
       </c>
       <c r="G132" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="C133" t="s">
         <v>928</v>
@@ -23897,21 +23927,21 @@
         <v>52</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>53</v>
+        <v>984</v>
       </c>
       <c r="G133" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
         <v>928</v>
@@ -23920,21 +23950,24 @@
         <v>52</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>53</v>
+        <v>983</v>
       </c>
       <c r="G134" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I134" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="C135" t="s">
         <v>928</v>
@@ -23946,18 +23979,18 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>53</v>
+        <v>981</v>
       </c>
       <c r="G135" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C136" t="s">
         <v>928</v>
@@ -23969,18 +24002,21 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>979</v>
       </c>
       <c r="G136" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I136" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
         <v>928</v>
@@ -23989,24 +24025,21 @@
         <v>52</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>53</v>
+        <v>982</v>
       </c>
       <c r="G137" t="s">
         <v>930</v>
       </c>
-      <c r="I137" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>183</v>
+        <v>969</v>
       </c>
       <c r="C138" t="s">
         <v>928</v>
@@ -24015,21 +24048,24 @@
         <v>52</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>53</v>
+        <v>970</v>
       </c>
       <c r="G138" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+      <c r="I138" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>182</v>
+        <v>975</v>
       </c>
       <c r="C139" t="s">
         <v>928</v>
@@ -24038,21 +24074,21 @@
         <v>52</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>53</v>
+        <v>976</v>
       </c>
       <c r="G139" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>973</v>
       </c>
       <c r="C140" t="s">
         <v>928</v>
@@ -24061,21 +24097,21 @@
         <v>52</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>53</v>
+        <v>974</v>
       </c>
       <c r="G140" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>977</v>
       </c>
       <c r="C141" t="s">
         <v>928</v>
@@ -24084,21 +24120,21 @@
         <v>52</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>53</v>
+        <v>978</v>
       </c>
       <c r="G141" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
         <v>928</v>
@@ -24113,15 +24149,15 @@
         <v>53</v>
       </c>
       <c r="G142" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="C143" t="s">
         <v>928</v>
@@ -24130,21 +24166,21 @@
         <v>52</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F143" t="s">
         <v>53</v>
       </c>
       <c r="G143" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
         <v>928</v>
@@ -24159,15 +24195,15 @@
         <v>53</v>
       </c>
       <c r="G144" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
         <v>928</v>
@@ -24176,21 +24212,21 @@
         <v>52</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="s">
         <v>53</v>
       </c>
       <c r="G145" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
         <v>928</v>
@@ -24199,21 +24235,21 @@
         <v>52</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
         <v>53</v>
       </c>
       <c r="G146" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C147" t="s">
         <v>928</v>
@@ -24222,162 +24258,162 @@
         <v>52</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
         <v>53</v>
       </c>
       <c r="G147" t="s">
-        <v>932</v>
+        <v>930</v>
+      </c>
+      <c r="I147" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C148" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D148" t="s">
         <v>52</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
         <v>53</v>
       </c>
       <c r="G148" t="s">
-        <v>932</v>
-      </c>
-      <c r="I148" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D149" t="s">
         <v>52</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
         <v>53</v>
       </c>
       <c r="G149" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C150" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D150" t="s">
         <v>52</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
         <v>53</v>
       </c>
       <c r="G150" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D151" t="s">
         <v>52</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
         <v>53</v>
       </c>
       <c r="G151" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B152" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D152" t="s">
         <v>52</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
         <v>53</v>
       </c>
       <c r="G152" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C153" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D153" t="s">
         <v>52</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
         <v>53</v>
       </c>
       <c r="G153" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
         <v>928</v>
@@ -24386,21 +24422,21 @@
         <v>52</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
         <v>53</v>
       </c>
       <c r="G154" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="C155" t="s">
         <v>928</v>
@@ -24409,21 +24445,21 @@
         <v>52</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F155" t="s">
         <v>53</v>
       </c>
       <c r="G155" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C156" t="s">
         <v>928</v>
@@ -24432,21 +24468,21 @@
         <v>52</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
         <v>53</v>
       </c>
       <c r="G156" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B157" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="C157" t="s">
         <v>928</v>
@@ -24455,21 +24491,21 @@
         <v>52</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
         <v>53</v>
       </c>
       <c r="G157" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C158" t="s">
         <v>928</v>
@@ -24478,18 +24514,21 @@
         <v>52</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>53</v>
       </c>
       <c r="G158" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C159" t="s">
         <v>928</v>
@@ -24500,39 +24539,42 @@
       <c r="E159">
         <v>2</v>
       </c>
+      <c r="F159" t="s">
+        <v>53</v>
+      </c>
       <c r="G159" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
         <v>928</v>
       </c>
       <c r="D160" t="s">
-        <v>957</v>
+        <v>52</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
+      <c r="F160" t="s">
+        <v>53</v>
+      </c>
       <c r="G160" t="s">
-        <v>956</v>
-      </c>
-      <c r="I160" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C161" t="s">
         <v>928</v>
@@ -24541,18 +24583,21 @@
         <v>52</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>53</v>
       </c>
       <c r="G161" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
         <v>928</v>
@@ -24561,7 +24606,7 @@
         <v>52</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F162" t="s">
         <v>53</v>
@@ -24570,12 +24615,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
         <v>928</v>
@@ -24593,12 +24638,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>934</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s">
         <v>928</v>
@@ -24607,15 +24652,24 @@
         <v>52</v>
       </c>
       <c r="E164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>53</v>
+      </c>
+      <c r="G164" t="s">
+        <v>932</v>
+      </c>
+      <c r="I164" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C165" t="s">
         <v>928</v>
@@ -24624,15 +24678,21 @@
         <v>52</v>
       </c>
       <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>53</v>
+      </c>
+      <c r="G165" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C166" t="s">
         <v>928</v>
@@ -24641,15 +24701,21 @@
         <v>52</v>
       </c>
       <c r="E166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>53</v>
+      </c>
+      <c r="G166" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
         <v>928</v>
@@ -24658,15 +24724,21 @@
         <v>52</v>
       </c>
       <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>53</v>
+      </c>
+      <c r="G167" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="C168" t="s">
         <v>928</v>
@@ -24675,232 +24747,256 @@
         <v>52</v>
       </c>
       <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>53</v>
+      </c>
+      <c r="G168" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>108</v>
+        <v>966</v>
       </c>
       <c r="C169" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D169" t="s">
         <v>52</v>
       </c>
       <c r="E169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="F169" t="s">
+        <v>53</v>
+      </c>
+      <c r="G169" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>743</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>746</v>
+        <v>967</v>
       </c>
       <c r="C170" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D170" t="s">
-        <v>582</v>
-      </c>
-      <c r="E170" t="s">
-        <v>951</v>
+        <v>52</v>
+      </c>
+      <c r="E170">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>53</v>
       </c>
       <c r="G170" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>743</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>744</v>
+        <v>965</v>
       </c>
       <c r="C171" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D171" t="s">
-        <v>582</v>
-      </c>
-      <c r="E171" t="s">
-        <v>951</v>
+        <v>52</v>
+      </c>
+      <c r="E171">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
+        <v>53</v>
       </c>
       <c r="G171" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>716</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>717</v>
+        <v>964</v>
       </c>
       <c r="C172" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D172" t="s">
-        <v>582</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1075</v>
+        <v>52</v>
+      </c>
+      <c r="E172">
+        <v>95</v>
+      </c>
+      <c r="F172" t="s">
+        <v>53</v>
       </c>
       <c r="G172" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>716</v>
-      </c>
-      <c r="B173" t="s">
-        <v>719</v>
-      </c>
-      <c r="C173" t="s">
-        <v>928</v>
-      </c>
-      <c r="D173" t="s">
-        <v>582</v>
+        <v>169</v>
       </c>
       <c r="E173" t="s">
-        <v>1075</v>
+        <v>911</v>
       </c>
       <c r="G173" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>716</v>
+        <v>164</v>
       </c>
       <c r="B174" t="s">
-        <v>720</v>
+        <v>166</v>
       </c>
       <c r="C174" t="s">
         <v>928</v>
       </c>
       <c r="D174" t="s">
-        <v>582</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1076</v>
+        <v>52</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>53</v>
       </c>
       <c r="G174" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>716</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>723</v>
+        <v>165</v>
       </c>
       <c r="C175" t="s">
         <v>928</v>
       </c>
       <c r="D175" t="s">
-        <v>582</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1077</v>
+        <v>52</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>53</v>
       </c>
       <c r="G175" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>716</v>
+        <v>922</v>
       </c>
       <c r="B176" t="s">
-        <v>722</v>
+        <v>50</v>
       </c>
       <c r="C176" t="s">
-        <v>928</v>
+        <v>1024</v>
       </c>
       <c r="D176" t="s">
         <v>582</v>
       </c>
       <c r="E176" t="s">
-        <v>1075</v>
+        <v>1266</v>
       </c>
       <c r="G176" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>716</v>
+        <v>922</v>
       </c>
       <c r="B177" t="s">
-        <v>50</v>
+        <v>1259</v>
       </c>
       <c r="C177" t="s">
-        <v>928</v>
+        <v>1024</v>
       </c>
       <c r="D177" t="s">
         <v>582</v>
       </c>
       <c r="E177" t="s">
-        <v>1079</v>
+        <v>1267</v>
       </c>
       <c r="G177" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>716</v>
+        <v>89</v>
       </c>
       <c r="B178" t="s">
-        <v>725</v>
+        <v>90</v>
       </c>
       <c r="C178" t="s">
         <v>928</v>
       </c>
       <c r="D178" t="s">
-        <v>582</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1078</v>
+        <v>52</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+      <c r="F178" t="s">
+        <v>53</v>
       </c>
       <c r="G178" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>716</v>
+        <v>89</v>
       </c>
       <c r="B179" t="s">
-        <v>724</v>
+        <v>92</v>
       </c>
       <c r="C179" t="s">
         <v>928</v>
       </c>
       <c r="D179" t="s">
-        <v>582</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1077</v>
+        <v>52</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179" t="s">
+        <v>53</v>
       </c>
       <c r="G179" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C180" t="s">
         <v>928</v>
@@ -24909,18 +25005,21 @@
         <v>52</v>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>53</v>
       </c>
       <c r="G180" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C181" t="s">
         <v>928</v>
@@ -24929,198 +25028,219 @@
         <v>52</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>704</v>
+        <v>158</v>
       </c>
       <c r="B182" t="s">
-        <v>705</v>
+        <v>156</v>
       </c>
       <c r="C182" t="s">
         <v>928</v>
       </c>
       <c r="D182" t="s">
-        <v>582</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1074</v>
+        <v>52</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>704</v>
+        <v>155</v>
       </c>
       <c r="B183" t="s">
-        <v>707</v>
+        <v>157</v>
       </c>
       <c r="C183" t="s">
         <v>928</v>
       </c>
       <c r="D183" t="s">
-        <v>582</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1073</v>
+        <v>957</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+      <c r="I183" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>764</v>
+        <v>155</v>
       </c>
       <c r="B184" t="s">
-        <v>765</v>
+        <v>156</v>
       </c>
       <c r="C184" t="s">
         <v>928</v>
       </c>
       <c r="D184" t="s">
-        <v>582</v>
-      </c>
-      <c r="E184" t="s">
-        <v>951</v>
+        <v>52</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>764</v>
+        <v>93</v>
       </c>
       <c r="B185" t="s">
-        <v>769</v>
+        <v>94</v>
       </c>
       <c r="C185" t="s">
         <v>928</v>
       </c>
       <c r="D185" t="s">
-        <v>582</v>
-      </c>
-      <c r="E185" t="s">
-        <v>951</v>
+        <v>52</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>53</v>
       </c>
       <c r="G185" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>764</v>
+        <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>767</v>
+        <v>95</v>
       </c>
       <c r="C186" t="s">
         <v>928</v>
       </c>
       <c r="D186" t="s">
-        <v>582</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1044</v>
+        <v>52</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>53</v>
       </c>
       <c r="G186" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>764</v>
+        <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>1082</v>
+        <v>94</v>
       </c>
       <c r="C187" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D187" t="s">
-        <v>582</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1083</v>
+        <v>52</v>
+      </c>
+      <c r="E187">
+        <v>65</v>
+      </c>
+      <c r="F187" t="s">
+        <v>53</v>
       </c>
       <c r="G187" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>375</v>
+        <v>93</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>95</v>
       </c>
       <c r="C188" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D188" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="E188">
-        <v>1.1000000000000001</v>
+        <v>58</v>
+      </c>
+      <c r="F188" t="s">
+        <v>53</v>
       </c>
       <c r="G188" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="B189" t="s">
-        <v>54</v>
+        <v>934</v>
       </c>
       <c r="C189" t="s">
         <v>928</v>
       </c>
       <c r="D189" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="E189">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G189" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C190" t="s">
         <v>928</v>
       </c>
-      <c r="E190" s="10" t="s">
-        <v>1001</v>
+      <c r="D190" t="s">
+        <v>52</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>483</v>
+        <v>104</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C191" t="s">
         <v>928</v>
@@ -25129,21 +25249,21 @@
         <v>52</v>
       </c>
       <c r="E191">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>932</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>492</v>
+        <v>104</v>
       </c>
       <c r="B192" t="s">
-        <v>308</v>
+        <v>105</v>
       </c>
       <c r="C192" t="s">
         <v>928</v>
@@ -25152,18 +25272,21 @@
         <v>52</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G192" t="s">
         <v>930</v>
       </c>
+      <c r="H192" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>492</v>
+        <v>104</v>
       </c>
       <c r="B193" t="s">
-        <v>493</v>
+        <v>106</v>
       </c>
       <c r="C193" t="s">
         <v>928</v>
@@ -25172,18 +25295,21 @@
         <v>52</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G193" t="s">
         <v>930</v>
       </c>
+      <c r="H193" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>492</v>
+        <v>104</v>
       </c>
       <c r="B194" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="C194" t="s">
         <v>928</v>
@@ -25192,101 +25318,113 @@
         <v>52</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="s">
         <v>930</v>
       </c>
+      <c r="H194" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>492</v>
+        <v>743</v>
       </c>
       <c r="B195" t="s">
-        <v>60</v>
+        <v>746</v>
       </c>
       <c r="C195" t="s">
         <v>928</v>
       </c>
       <c r="D195" t="s">
-        <v>52</v>
-      </c>
-      <c r="E195">
-        <v>12</v>
+        <v>582</v>
+      </c>
+      <c r="E195" t="s">
+        <v>951</v>
       </c>
       <c r="G195" t="s">
-        <v>930</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>497</v>
+        <v>743</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>744</v>
       </c>
       <c r="C196" t="s">
         <v>928</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
+        <v>582</v>
+      </c>
+      <c r="E196" t="s">
+        <v>951</v>
       </c>
       <c r="G196" t="s">
-        <v>930</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1028</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>497</v>
+        <v>667</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>670</v>
       </c>
       <c r="C197" t="s">
-        <v>928</v>
+        <v>1065</v>
       </c>
       <c r="D197" t="s">
-        <v>52</v>
-      </c>
-      <c r="E197">
-        <v>2</v>
+        <v>582</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1070</v>
       </c>
       <c r="G197" t="s">
-        <v>930</v>
+        <v>931</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="B198" t="s">
-        <v>736</v>
+        <v>668</v>
       </c>
       <c r="C198" t="s">
-        <v>928</v>
+        <v>1065</v>
       </c>
       <c r="D198" t="s">
         <v>582</v>
       </c>
       <c r="E198" t="s">
-        <v>951</v>
+        <v>1066</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1067</v>
       </c>
       <c r="G198" t="s">
-        <v>930</v>
+        <v>931</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="B199" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="C199" t="s">
         <v>928</v>
@@ -25295,18 +25433,18 @@
         <v>582</v>
       </c>
       <c r="E199" t="s">
-        <v>951</v>
+        <v>1075</v>
       </c>
       <c r="G199" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>84</v>
+        <v>716</v>
       </c>
       <c r="B200" t="s">
-        <v>50</v>
+        <v>719</v>
       </c>
       <c r="C200" t="s">
         <v>928</v>
@@ -25315,18 +25453,18 @@
         <v>582</v>
       </c>
       <c r="E200" t="s">
-        <v>1258</v>
+        <v>1075</v>
       </c>
       <c r="G200" t="s">
-        <v>996</v>
+        <v>929</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>84</v>
+        <v>716</v>
       </c>
       <c r="B201" t="s">
-        <v>69</v>
+        <v>720</v>
       </c>
       <c r="C201" t="s">
         <v>928</v>
@@ -25335,18 +25473,18 @@
         <v>582</v>
       </c>
       <c r="E201" t="s">
-        <v>955</v>
+        <v>1076</v>
       </c>
       <c r="G201" t="s">
-        <v>996</v>
+        <v>929</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>84</v>
+        <v>716</v>
       </c>
       <c r="B202" t="s">
-        <v>72</v>
+        <v>723</v>
       </c>
       <c r="C202" t="s">
         <v>928</v>
@@ -25355,18 +25493,18 @@
         <v>582</v>
       </c>
       <c r="E202" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
       <c r="G202" t="s">
-        <v>996</v>
+        <v>929</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>84</v>
+        <v>716</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>722</v>
       </c>
       <c r="C203" t="s">
         <v>928</v>
@@ -25375,18 +25513,18 @@
         <v>582</v>
       </c>
       <c r="E203" t="s">
-        <v>1008</v>
+        <v>1075</v>
       </c>
       <c r="G203" t="s">
-        <v>996</v>
+        <v>929</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C204" t="s">
         <v>928</v>
@@ -25395,24 +25533,18 @@
         <v>582</v>
       </c>
       <c r="E204" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1292</v>
+        <v>1079</v>
       </c>
       <c r="G204" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1294</v>
+        <v>929</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="B205" t="s">
-        <v>1269</v>
+        <v>725</v>
       </c>
       <c r="C205" t="s">
         <v>928</v>
@@ -25421,21 +25553,18 @@
         <v>582</v>
       </c>
       <c r="E205" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1292</v>
+        <v>1078</v>
       </c>
       <c r="G205" t="s">
-        <v>1293</v>
+        <v>929</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="B206" t="s">
-        <v>1271</v>
+        <v>724</v>
       </c>
       <c r="C206" t="s">
         <v>928</v>
@@ -25444,33 +25573,27 @@
         <v>582</v>
       </c>
       <c r="E206" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F206" t="s">
-        <v>1292</v>
+        <v>1077</v>
       </c>
       <c r="G206" t="s">
-        <v>1293</v>
+        <v>929</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>886</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
-        <v>1282</v>
+        <v>64</v>
       </c>
       <c r="C207" t="s">
         <v>928</v>
       </c>
       <c r="D207" t="s">
-        <v>582</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1296</v>
-      </c>
-      <c r="F207" t="s">
-        <v>1297</v>
+        <v>52</v>
+      </c>
+      <c r="E207">
+        <v>4</v>
       </c>
       <c r="G207" t="s">
         <v>929</v>
@@ -25478,22 +25601,19 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>886</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
-        <v>1284</v>
+        <v>62</v>
       </c>
       <c r="C208" t="s">
         <v>928</v>
       </c>
       <c r="D208" t="s">
-        <v>582</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1299</v>
+        <v>52</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
       </c>
       <c r="G208" t="s">
         <v>929</v>
@@ -25501,74 +25621,59 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="B209" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="C209" t="s">
-        <v>1065</v>
+        <v>928</v>
       </c>
       <c r="D209" t="s">
         <v>582</v>
       </c>
       <c r="E209" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="G209" t="s">
-        <v>931</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1068</v>
+        <v>929</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>667</v>
+        <v>704</v>
       </c>
       <c r="B210" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="C210" t="s">
-        <v>1065</v>
+        <v>928</v>
       </c>
       <c r="D210" t="s">
         <v>582</v>
       </c>
       <c r="E210" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F210" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="G210" t="s">
-        <v>931</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1068</v>
+        <v>929</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>160</v>
+        <v>764</v>
       </c>
       <c r="B211" t="s">
-        <v>960</v>
+        <v>765</v>
       </c>
       <c r="C211" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="D211" t="s">
-        <v>52</v>
-      </c>
-      <c r="E211">
-        <v>43</v>
-      </c>
-      <c r="F211" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E211" t="s">
+        <v>951</v>
       </c>
       <c r="G211" t="s">
         <v>930</v>
@@ -25576,22 +25681,19 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>160</v>
+        <v>764</v>
       </c>
       <c r="B212" t="s">
-        <v>161</v>
+        <v>769</v>
       </c>
       <c r="C212" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="D212" t="s">
-        <v>52</v>
-      </c>
-      <c r="E212">
-        <v>49</v>
-      </c>
-      <c r="F212" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E212" t="s">
+        <v>951</v>
       </c>
       <c r="G212" t="s">
         <v>930</v>
@@ -25599,22 +25701,19 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>119</v>
+        <v>764</v>
       </c>
       <c r="B213" t="s">
-        <v>54</v>
+        <v>767</v>
       </c>
       <c r="C213" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D213" t="s">
-        <v>52</v>
-      </c>
-      <c r="E213">
-        <v>6</v>
-      </c>
-      <c r="F213" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1044</v>
       </c>
       <c r="G213" t="s">
         <v>930</v>
@@ -25622,189 +25721,159 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>119</v>
+        <v>764</v>
       </c>
       <c r="B214" t="s">
-        <v>120</v>
+        <v>1082</v>
       </c>
       <c r="C214" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D214" t="s">
-        <v>52</v>
-      </c>
-      <c r="E214">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1083</v>
       </c>
       <c r="G214" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="C215" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D215" t="s">
         <v>935</v>
       </c>
       <c r="E215">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F215" t="s">
-        <v>936</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G215" t="s">
-        <v>937</v>
-      </c>
-      <c r="I215" t="s">
-        <v>1257</v>
+        <v>931</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="B216" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C216" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D216" t="s">
         <v>935</v>
       </c>
       <c r="E216">
-        <v>71.3</v>
-      </c>
-      <c r="F216" t="s">
-        <v>936</v>
+        <v>1.6</v>
       </c>
       <c r="G216" t="s">
-        <v>937</v>
-      </c>
-      <c r="I216" t="s">
-        <v>1257</v>
+        <v>931</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>380</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="C217" t="s">
-        <v>933</v>
-      </c>
-      <c r="D217" t="s">
-        <v>52</v>
-      </c>
-      <c r="E217">
-        <v>35</v>
-      </c>
-      <c r="F217" t="s">
-        <v>53</v>
+        <v>928</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="G217" t="s">
-        <v>930</v>
+        <v>1002</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>199</v>
+        <v>483</v>
       </c>
       <c r="B218" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C218" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D218" t="s">
         <v>52</v>
       </c>
       <c r="E218">
-        <v>13</v>
-      </c>
-      <c r="F218" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>930</v>
+        <v>932</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="B219" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="C219" t="s">
-        <v>933</v>
+        <v>1024</v>
       </c>
       <c r="D219" t="s">
-        <v>52</v>
-      </c>
-      <c r="E219">
-        <v>14</v>
-      </c>
-      <c r="F219" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1027</v>
       </c>
       <c r="G219" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="B220" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="C220" t="s">
-        <v>933</v>
+        <v>1024</v>
       </c>
       <c r="D220" t="s">
-        <v>52</v>
-      </c>
-      <c r="E220">
-        <v>12</v>
-      </c>
-      <c r="F220" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1025</v>
       </c>
       <c r="G220" t="s">
-        <v>930</v>
+        <v>1002</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>489</v>
       </c>
       <c r="B221" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="C221" t="s">
-        <v>933</v>
-      </c>
-      <c r="D221" t="s">
-        <v>52</v>
-      </c>
-      <c r="E221">
-        <v>39</v>
-      </c>
-      <c r="F221" t="s">
-        <v>53</v>
+        <v>797</v>
       </c>
       <c r="G221" t="s">
         <v>930</v>
@@ -25812,22 +25881,19 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>492</v>
       </c>
       <c r="B222" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="C222" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D222" t="s">
         <v>52</v>
       </c>
       <c r="E222">
-        <v>29</v>
-      </c>
-      <c r="F222" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G222" t="s">
         <v>930</v>
@@ -25835,202 +25901,190 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="B223" t="s">
-        <v>966</v>
+        <v>493</v>
       </c>
       <c r="C223" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D223" t="s">
         <v>52</v>
       </c>
       <c r="E223">
-        <v>30</v>
-      </c>
-      <c r="F223" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="B224" t="s">
-        <v>967</v>
+        <v>330</v>
       </c>
       <c r="C224" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D224" t="s">
         <v>52</v>
       </c>
       <c r="E224">
-        <v>14</v>
-      </c>
-      <c r="F224" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G224" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>170</v>
+        <v>492</v>
       </c>
       <c r="B225" t="s">
-        <v>965</v>
+        <v>60</v>
       </c>
       <c r="C225" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D225" t="s">
         <v>52</v>
       </c>
       <c r="E225">
-        <v>38</v>
-      </c>
-      <c r="F225" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G225" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>170</v>
+        <v>497</v>
       </c>
       <c r="B226" t="s">
-        <v>964</v>
+        <v>54</v>
       </c>
       <c r="C226" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D226" t="s">
         <v>52</v>
       </c>
       <c r="E226">
-        <v>95</v>
-      </c>
-      <c r="F226" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>93</v>
+        <v>497</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="C227" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D227" t="s">
         <v>52</v>
       </c>
       <c r="E227">
-        <v>65</v>
-      </c>
-      <c r="F227" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="B228" t="s">
-        <v>95</v>
+        <v>378</v>
       </c>
       <c r="C228" t="s">
-        <v>933</v>
+        <v>1024</v>
       </c>
       <c r="D228" t="s">
-        <v>52</v>
+        <v>935</v>
       </c>
       <c r="E228">
-        <v>58</v>
-      </c>
-      <c r="F228" t="s">
-        <v>53</v>
+        <v>22.9</v>
       </c>
       <c r="G228" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>160</v>
+        <v>499</v>
       </c>
       <c r="B229" t="s">
-        <v>960</v>
+        <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>961</v>
+        <v>1024</v>
       </c>
       <c r="D229" t="s">
-        <v>52</v>
+        <v>935</v>
       </c>
       <c r="E229">
-        <v>295</v>
-      </c>
-      <c r="F229" t="s">
-        <v>53</v>
+        <v>23.2</v>
       </c>
       <c r="G229" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>160</v>
+        <v>734</v>
       </c>
       <c r="B230" t="s">
-        <v>161</v>
+        <v>736</v>
       </c>
       <c r="C230" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
       <c r="D230" t="s">
-        <v>52</v>
-      </c>
-      <c r="E230">
-        <v>132</v>
-      </c>
-      <c r="F230" t="s">
-        <v>53</v>
+        <v>582</v>
+      </c>
+      <c r="E230" t="s">
+        <v>951</v>
       </c>
       <c r="G230" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>169</v>
+        <v>734</v>
+      </c>
+      <c r="B231" t="s">
+        <v>735</v>
+      </c>
+      <c r="C231" t="s">
+        <v>928</v>
+      </c>
+      <c r="D231" t="s">
+        <v>582</v>
       </c>
       <c r="E231" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
       <c r="G231" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J231">
-    <sortCondition ref="C2:C231"/>
+    <sortCondition ref="A2:A231"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32830,15 +32884,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC1FFAD-85C5-4FE8-8D0A-04323651C39B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e63c1461-d352-4ca9-95af-d03a8e9eb2cb"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e63c1461-d352-4ca9-95af-d03a8e9eb2cb"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Data/sae_extraction_20200131.xlsx
+++ b/Data/sae_extraction_20200131.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvdmc\OneDrive - University of Glasgow\Documents\adverse_events_older_people\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{10912F58-3D18-4B01-919C-DC4A349BCDFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B212F1FB-FEF4-4F1E-8482-28F56BF82A3D}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{10912F58-3D18-4B01-919C-DC4A349BCDFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CA8DA64-17E3-48A6-88F5-960798BD11B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{3137E817-FA1E-4743-A1DF-4AF79B93904D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="results_extract" sheetId="3" r:id="rId4"/>
     <sheet name="arm_info" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3955,9 +3957,6 @@
     <t>NA. This trial is about metformin - ?should be excluded</t>
   </si>
   <si>
-    <t>5 (0.3)</t>
-  </si>
-  <si>
     <t>1955</t>
   </si>
   <si>
@@ -3977,6 +3976,9 @@
   </si>
   <si>
     <t>DM took from paper 26996246</t>
+  </si>
+  <si>
+    <t>94 ()</t>
   </si>
 </sst>
 </file>
@@ -4637,8 +4639,8 @@
   <dimension ref="A1:I739"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159:D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -7707,7 +7709,7 @@
         <v>52</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F156" t="s">
         <v>221</v>
@@ -7727,7 +7729,7 @@
         <v>408</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F157" t="s">
         <v>221</v>
@@ -7747,7 +7749,7 @@
         <v>408</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F158" t="s">
         <v>221</v>
@@ -7767,7 +7769,7 @@
         <v>96</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F159" t="s">
         <v>221</v>
@@ -19232,7 +19234,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -21057,8 +21059,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H194" sqref="H194"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -21121,10 +21123,10 @@
         <v>53</v>
       </c>
       <c r="G2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H2" t="s">
         <v>1311</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -21147,7 +21149,7 @@
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -22185,7 +22187,7 @@
         <v>582</v>
       </c>
       <c r="E51" t="s">
-        <v>1306</v>
+        <v>1313</v>
       </c>
       <c r="G51" t="s">
         <v>1010</v>
@@ -25209,7 +25211,7 @@
         <v>930</v>
       </c>
       <c r="H189" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -25232,7 +25234,7 @@
         <v>930</v>
       </c>
       <c r="H190" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
@@ -25255,7 +25257,7 @@
         <v>930</v>
       </c>
       <c r="H191" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
@@ -25278,7 +25280,7 @@
         <v>930</v>
       </c>
       <c r="H192" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
@@ -25301,7 +25303,7 @@
         <v>930</v>
       </c>
       <c r="H193" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
@@ -25324,7 +25326,7 @@
         <v>930</v>
       </c>
       <c r="H194" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
@@ -32623,6 +32625,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF7793DA0DEC7646B4067AE33236EE6A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39182d8c501db2feff8a634ef4fcbc54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c55d3ce8-937e-4dcf-883e-347e1ce052b7" xmlns:ns4="e63c1461-d352-4ca9-95af-d03a8e9eb2cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e66070fc1ae4f41c651eea051476ae7" ns3:_="" ns4:_="">
     <xsd:import namespace="c55d3ce8-937e-4dcf-883e-347e1ce052b7"/>
@@ -32839,15 +32850,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -32855,6 +32857,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3B6662-E37F-4F37-86DF-BC6ACEE62A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18578C76-3020-46A6-B114-6BEC29578938}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32869,14 +32879,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3B6662-E37F-4F37-86DF-BC6ACEE62A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
